--- a/documents/gantt-chart_L.xlsx
+++ b/documents/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuwa\Documents\Coding\assetManagement\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7C6035-A94D-4CFD-9FD1-F4F378F7B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C218481C-DB59-4652-9838-4D2DA188ACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,6 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -844,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -1930,15 +1920,9 @@
     </r>
   </si>
   <si>
-    <t>[Online Test Management Platform] Project Schedule</t>
-  </si>
-  <si>
     <t>Kazuki Suwabe</t>
   </si>
   <si>
-    <t>[19054600]</t>
-  </si>
-  <si>
     <t>Milestone</t>
   </si>
   <si>
@@ -1973,6 +1957,9 @@
   </si>
   <si>
     <t>Modify session</t>
+  </si>
+  <si>
+    <t>[MarketInfo] Project Schedule</t>
   </si>
 </sst>
 </file>
@@ -3333,13 +3320,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3349,10 +3329,6 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3361,6 +3337,17 @@
     </xf>
     <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4690,29 +4677,29 @@
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="I1" s="104"/>
-      <c r="K1" s="146" t="s">
+      <c r="K1" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -4752,11 +4739,11 @@
       <c r="B4" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="151">
+      <c r="C4" s="154">
         <v>43129</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="87"/>
       <c r="G4" s="88" t="s">
         <v>78</v>
@@ -4766,180 +4753,180 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="148" t="str">
+      <c r="K4" s="146" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="148" t="str">
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="146" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="149"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="148" t="str">
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="146" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="149"/>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="150"/>
-      <c r="AF4" s="148" t="str">
+      <c r="Z4" s="147"/>
+      <c r="AA4" s="147"/>
+      <c r="AB4" s="147"/>
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="146" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="150"/>
-      <c r="AM4" s="148" t="str">
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="146" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="149"/>
-      <c r="AO4" s="149"/>
-      <c r="AP4" s="149"/>
-      <c r="AQ4" s="149"/>
-      <c r="AR4" s="149"/>
-      <c r="AS4" s="150"/>
-      <c r="AT4" s="148" t="str">
+      <c r="AN4" s="147"/>
+      <c r="AO4" s="147"/>
+      <c r="AP4" s="147"/>
+      <c r="AQ4" s="147"/>
+      <c r="AR4" s="147"/>
+      <c r="AS4" s="148"/>
+      <c r="AT4" s="146" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="149"/>
-      <c r="AV4" s="149"/>
-      <c r="AW4" s="149"/>
-      <c r="AX4" s="149"/>
-      <c r="AY4" s="149"/>
-      <c r="AZ4" s="150"/>
-      <c r="BA4" s="148" t="str">
+      <c r="AU4" s="147"/>
+      <c r="AV4" s="147"/>
+      <c r="AW4" s="147"/>
+      <c r="AX4" s="147"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="148"/>
+      <c r="BA4" s="146" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="149"/>
-      <c r="BC4" s="149"/>
-      <c r="BD4" s="149"/>
-      <c r="BE4" s="149"/>
-      <c r="BF4" s="149"/>
-      <c r="BG4" s="150"/>
-      <c r="BH4" s="148" t="str">
+      <c r="BB4" s="147"/>
+      <c r="BC4" s="147"/>
+      <c r="BD4" s="147"/>
+      <c r="BE4" s="147"/>
+      <c r="BF4" s="147"/>
+      <c r="BG4" s="148"/>
+      <c r="BH4" s="146" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="149"/>
-      <c r="BJ4" s="149"/>
-      <c r="BK4" s="149"/>
-      <c r="BL4" s="149"/>
-      <c r="BM4" s="149"/>
-      <c r="BN4" s="150"/>
+      <c r="BI4" s="147"/>
+      <c r="BJ4" s="147"/>
+      <c r="BK4" s="147"/>
+      <c r="BL4" s="147"/>
+      <c r="BM4" s="147"/>
+      <c r="BN4" s="148"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
       <c r="B5" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
       <c r="I5" s="87"/>
       <c r="J5" s="31"/>
-      <c r="K5" s="152">
+      <c r="K5" s="149">
         <f>K6</f>
         <v>43129</v>
       </c>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="152">
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="149">
         <f>R6</f>
         <v>43136</v>
       </c>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="154"/>
-      <c r="Y5" s="152">
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="149">
         <f>Y6</f>
         <v>43143</v>
       </c>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="154"/>
-      <c r="AF5" s="152">
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="149">
         <f>AF6</f>
         <v>43150</v>
       </c>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="152">
+      <c r="AG5" s="150"/>
+      <c r="AH5" s="150"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="149">
         <f>AM6</f>
         <v>43157</v>
       </c>
-      <c r="AN5" s="153"/>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="153"/>
-      <c r="AQ5" s="153"/>
-      <c r="AR5" s="153"/>
-      <c r="AS5" s="154"/>
-      <c r="AT5" s="152">
+      <c r="AN5" s="150"/>
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="150"/>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="150"/>
+      <c r="AS5" s="151"/>
+      <c r="AT5" s="149">
         <f>AT6</f>
         <v>43164</v>
       </c>
-      <c r="AU5" s="153"/>
-      <c r="AV5" s="153"/>
-      <c r="AW5" s="153"/>
-      <c r="AX5" s="153"/>
-      <c r="AY5" s="153"/>
-      <c r="AZ5" s="154"/>
-      <c r="BA5" s="152">
+      <c r="AU5" s="150"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="151"/>
+      <c r="BA5" s="149">
         <f>BA6</f>
         <v>43171</v>
       </c>
-      <c r="BB5" s="153"/>
-      <c r="BC5" s="153"/>
-      <c r="BD5" s="153"/>
-      <c r="BE5" s="153"/>
-      <c r="BF5" s="153"/>
-      <c r="BG5" s="154"/>
-      <c r="BH5" s="152">
+      <c r="BB5" s="150"/>
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="151"/>
+      <c r="BH5" s="149">
         <f>BH6</f>
         <v>43178</v>
       </c>
-      <c r="BI5" s="153"/>
-      <c r="BJ5" s="153"/>
-      <c r="BK5" s="153"/>
-      <c r="BL5" s="153"/>
-      <c r="BM5" s="153"/>
-      <c r="BN5" s="154"/>
+      <c r="BI5" s="150"/>
+      <c r="BJ5" s="150"/>
+      <c r="BK5" s="150"/>
+      <c r="BL5" s="150"/>
+      <c r="BM5" s="150"/>
+      <c r="BN5" s="151"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -8370,6 +8357,15 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8380,15 +8376,6 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H43">
@@ -8500,7 +8487,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8520,7 +8507,7 @@
   <sheetData>
     <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -8529,34 +8516,30 @@
       <c r="F1" s="30"/>
       <c r="I1" s="104"/>
       <c r="J1" s="132"/>
-      <c r="L1" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="152"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="152"/>
+      <c r="AD1" s="152"/>
+      <c r="AE1" s="152"/>
+      <c r="AF1" s="152"/>
     </row>
     <row r="2" spans="1:67" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>144</v>
-      </c>
+      <c r="A2" s="32"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="20"/>
@@ -8591,11 +8574,11 @@
       <c r="B4" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="151">
+      <c r="C4" s="154">
         <v>45124</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="87"/>
       <c r="G4" s="88" t="s">
         <v>78</v>
@@ -8606,183 +8589,183 @@
       <c r="I4" s="2"/>
       <c r="J4" s="134"/>
       <c r="K4" s="31"/>
-      <c r="L4" s="148" t="str">
+      <c r="L4" s="146" t="str">
         <f>"Week "&amp;(L6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="148" t="str">
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="147"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="146" t="str">
         <f>"Week "&amp;(S6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="149"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="148" t="str">
+      <c r="T4" s="147"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="147"/>
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="146" t="str">
         <f>"Week "&amp;(Z6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="AA4" s="149"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="150"/>
-      <c r="AG4" s="148" t="str">
+      <c r="AA4" s="147"/>
+      <c r="AB4" s="147"/>
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="147"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="146" t="str">
         <f>"Week "&amp;(AG6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="149"/>
-      <c r="AM4" s="150"/>
-      <c r="AN4" s="148" t="str">
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="147"/>
+      <c r="AK4" s="147"/>
+      <c r="AL4" s="147"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="146" t="str">
         <f>"Week "&amp;(AN6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AO4" s="149"/>
-      <c r="AP4" s="149"/>
-      <c r="AQ4" s="149"/>
-      <c r="AR4" s="149"/>
-      <c r="AS4" s="149"/>
-      <c r="AT4" s="150"/>
-      <c r="AU4" s="148" t="str">
+      <c r="AO4" s="147"/>
+      <c r="AP4" s="147"/>
+      <c r="AQ4" s="147"/>
+      <c r="AR4" s="147"/>
+      <c r="AS4" s="147"/>
+      <c r="AT4" s="148"/>
+      <c r="AU4" s="146" t="str">
         <f>"Week "&amp;(AU6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AV4" s="149"/>
-      <c r="AW4" s="149"/>
-      <c r="AX4" s="149"/>
-      <c r="AY4" s="149"/>
-      <c r="AZ4" s="149"/>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="148" t="str">
+      <c r="AV4" s="147"/>
+      <c r="AW4" s="147"/>
+      <c r="AX4" s="147"/>
+      <c r="AY4" s="147"/>
+      <c r="AZ4" s="147"/>
+      <c r="BA4" s="148"/>
+      <c r="BB4" s="146" t="str">
         <f>"Week "&amp;(BB6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BC4" s="149"/>
-      <c r="BD4" s="149"/>
-      <c r="BE4" s="149"/>
-      <c r="BF4" s="149"/>
-      <c r="BG4" s="149"/>
-      <c r="BH4" s="150"/>
-      <c r="BI4" s="148" t="str">
+      <c r="BC4" s="147"/>
+      <c r="BD4" s="147"/>
+      <c r="BE4" s="147"/>
+      <c r="BF4" s="147"/>
+      <c r="BG4" s="147"/>
+      <c r="BH4" s="148"/>
+      <c r="BI4" s="146" t="str">
         <f>"Week "&amp;(BI6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BJ4" s="149"/>
-      <c r="BK4" s="149"/>
-      <c r="BL4" s="149"/>
-      <c r="BM4" s="149"/>
-      <c r="BN4" s="149"/>
-      <c r="BO4" s="150"/>
+      <c r="BJ4" s="147"/>
+      <c r="BK4" s="147"/>
+      <c r="BL4" s="147"/>
+      <c r="BM4" s="147"/>
+      <c r="BN4" s="147"/>
+      <c r="BO4" s="148"/>
     </row>
     <row r="5" spans="1:67" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
       <c r="B5" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="C5" s="153" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
       <c r="I5" s="87"/>
       <c r="J5" s="135"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="152">
+      <c r="L5" s="149">
         <f>L6</f>
         <v>45124</v>
       </c>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="152">
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="149">
         <f>S6</f>
         <v>45131</v>
       </c>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154"/>
-      <c r="Z5" s="152">
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="149">
         <f>Z6</f>
         <v>45138</v>
       </c>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="154"/>
-      <c r="AG5" s="152">
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="149">
         <f>AG6</f>
         <v>45145</v>
       </c>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="153"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="152">
+      <c r="AH5" s="150"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="150"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="149">
         <f>AN6</f>
         <v>45152</v>
       </c>
-      <c r="AO5" s="153"/>
-      <c r="AP5" s="153"/>
-      <c r="AQ5" s="153"/>
-      <c r="AR5" s="153"/>
-      <c r="AS5" s="153"/>
-      <c r="AT5" s="154"/>
-      <c r="AU5" s="152">
+      <c r="AO5" s="150"/>
+      <c r="AP5" s="150"/>
+      <c r="AQ5" s="150"/>
+      <c r="AR5" s="150"/>
+      <c r="AS5" s="150"/>
+      <c r="AT5" s="151"/>
+      <c r="AU5" s="149">
         <f>AU6</f>
         <v>45159</v>
       </c>
-      <c r="AV5" s="153"/>
-      <c r="AW5" s="153"/>
-      <c r="AX5" s="153"/>
-      <c r="AY5" s="153"/>
-      <c r="AZ5" s="153"/>
-      <c r="BA5" s="154"/>
-      <c r="BB5" s="152">
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="150"/>
+      <c r="AY5" s="150"/>
+      <c r="AZ5" s="150"/>
+      <c r="BA5" s="151"/>
+      <c r="BB5" s="149">
         <f>BB6</f>
         <v>45166</v>
       </c>
-      <c r="BC5" s="153"/>
-      <c r="BD5" s="153"/>
-      <c r="BE5" s="153"/>
-      <c r="BF5" s="153"/>
-      <c r="BG5" s="153"/>
-      <c r="BH5" s="154"/>
-      <c r="BI5" s="152">
+      <c r="BC5" s="150"/>
+      <c r="BD5" s="150"/>
+      <c r="BE5" s="150"/>
+      <c r="BF5" s="150"/>
+      <c r="BG5" s="150"/>
+      <c r="BH5" s="151"/>
+      <c r="BI5" s="149">
         <f>BI6</f>
         <v>45173</v>
       </c>
-      <c r="BJ5" s="153"/>
-      <c r="BK5" s="153"/>
-      <c r="BL5" s="153"/>
-      <c r="BM5" s="153"/>
-      <c r="BN5" s="153"/>
-      <c r="BO5" s="154"/>
+      <c r="BJ5" s="150"/>
+      <c r="BK5" s="150"/>
+      <c r="BL5" s="150"/>
+      <c r="BM5" s="150"/>
+      <c r="BN5" s="150"/>
+      <c r="BO5" s="151"/>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
@@ -9050,7 +9033,7 @@
         <v>76</v>
       </c>
       <c r="J7" s="91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K7" s="91"/>
       <c r="L7" s="94" t="str">
@@ -9284,7 +9267,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="66"/>
@@ -9364,7 +9347,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="99"/>
       <c r="E9" s="78">
@@ -9447,7 +9430,7 @@
         <v>1.2</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="99"/>
       <c r="E10" s="78">
@@ -9530,7 +9513,7 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="78">
@@ -10150,7 +10133,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="80"/>
@@ -10229,7 +10212,7 @@
         <v>2.1</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="99"/>
       <c r="E20" s="78">
@@ -10309,7 +10292,7 @@
         <v>2.2</v>
       </c>
       <c r="B21" s="144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="78">
@@ -10759,7 +10742,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="80"/>
@@ -10838,7 +10821,7 @@
         <v>3.1</v>
       </c>
       <c r="B28" s="144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28" s="99"/>
       <c r="E28" s="78">
@@ -11214,7 +11197,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="36"/>
       <c r="E33" s="80"/>
@@ -11293,7 +11276,7 @@
         <v>4.1</v>
       </c>
       <c r="B34" s="144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="78">
@@ -12492,15 +12475,23 @@
       <c r="BO49" s="40"/>
     </row>
     <row r="50" spans="1:67" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="130" t="str">
-        <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
-        <v>► Watch How to Create a Gantt Chart in Excel</v>
-      </c>
+      <c r="A50" s="130"/>
       <c r="J50" s="143"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="AG4:AM4"/>
+    <mergeCell ref="L1:AF1"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="S4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="S5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="AG5:AM5"/>
     <mergeCell ref="AU5:BA5"/>
     <mergeCell ref="BB5:BH5"/>
     <mergeCell ref="BI5:BO5"/>
@@ -12509,17 +12500,6 @@
     <mergeCell ref="BB4:BH4"/>
     <mergeCell ref="BI4:BO4"/>
     <mergeCell ref="AN5:AT5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="S5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="AG5:AM5"/>
-    <mergeCell ref="AG4:AM4"/>
-    <mergeCell ref="L1:AF1"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="S4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H11 H15:H17 H19:H22 H26:H34 H40:H49">
     <cfRule type="dataBar" priority="49">
@@ -12880,20 +12860,17 @@
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="H4" xr:uid="{C40B17E0-038E-429C-AD99-CD40D03B3628}"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="L1:AF1" r:id="rId1" display="Gantt Chart Template © 2006-2018 by Vertex42.com." xr:uid="{A6C258DF-AC71-44F0-89BF-49198B9C7FEB}"/>
-  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.25"/>
-  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="12289" r:id="rId5" name="Scroll Bar 1">
+            <control shapeId="12289" r:id="rId4" name="Scroll Bar 1">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
